--- a/data/trans_dic/IP2003-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/IP2003-Estudios-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>10,2; 23,62</t>
+          <t>9,89; 22,65</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>13,34; 27,96</t>
+          <t>12,93; 27,28</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>12,02; 26,86</t>
+          <t>11,78; 27,18</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,0; 16,13</t>
+          <t>2,58; 15,98</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>15,7; 30,38</t>
+          <t>15,77; 30,25</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>14,61; 28,68</t>
+          <t>14,15; 28,09</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>3,97; 17,46</t>
+          <t>3,95; 17,13</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>5,58; 28,08</t>
+          <t>5,61; 28,27</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>14,71; 24,4</t>
+          <t>15,02; 24,14</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>15,4; 25,55</t>
+          <t>15,41; 25,12</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>9,87; 20,15</t>
+          <t>9,79; 20,26</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>5,55; 18,63</t>
+          <t>5,28; 17,98</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>11,98; 17,26</t>
+          <t>12,06; 17,16</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>11,75; 16,97</t>
+          <t>11,55; 16,8</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>10,53; 15,66</t>
+          <t>10,52; 15,71</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>11,14; 19,45</t>
+          <t>11,17; 18,73</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>16,26; 22,84</t>
+          <t>16,43; 23,01</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>13,79; 19,71</t>
+          <t>13,74; 19,86</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>12,44; 18,19</t>
+          <t>12,25; 17,81</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>11,54; 21,03</t>
+          <t>11,86; 21,08</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>14,74; 18,77</t>
+          <t>14,7; 18,99</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>13,43; 17,51</t>
+          <t>13,47; 17,33</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>12,09; 15,74</t>
+          <t>12,05; 15,84</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>12,17; 18,0</t>
+          <t>12,18; 17,9</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>9,01; 18,2</t>
+          <t>8,93; 17,96</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,07; 11,61</t>
+          <t>4,4; 11,46</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>7,72; 16,06</t>
+          <t>7,18; 15,57</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>7,84; 16,58</t>
+          <t>7,97; 16,58</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>6,49; 14,63</t>
+          <t>6,7; 14,43</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>10,73; 20,16</t>
+          <t>10,21; 19,95</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>7,4; 15,4</t>
+          <t>7,22; 15,84</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>10,11; 20,26</t>
+          <t>9,69; 19,65</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>8,77; 14,85</t>
+          <t>8,99; 14,99</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>8,18; 14,53</t>
+          <t>8,31; 14,35</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>8,34; 14,14</t>
+          <t>8,37; 13,95</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>10,18; 16,59</t>
+          <t>10,0; 16,85</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>12,36; 16,65</t>
+          <t>12,14; 16,58</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>11,24; 15,29</t>
+          <t>11,11; 15,39</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>11,0; 15,2</t>
+          <t>10,81; 15,1</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>10,85; 16,67</t>
+          <t>10,98; 16,78</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>15,23; 20,17</t>
+          <t>15,33; 20,04</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>14,46; 19,23</t>
+          <t>14,61; 19,18</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>11,56; 16,05</t>
+          <t>11,57; 15,85</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>12,02; 18,52</t>
+          <t>11,91; 18,58</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>14,25; 17,33</t>
+          <t>14,12; 17,43</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>13,23; 16,43</t>
+          <t>13,47; 16,43</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>11,68; 14,84</t>
+          <t>11,63; 14,75</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>12,1; 16,47</t>
+          <t>12,0; 16,29</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP2003-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/IP2003-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -540,7 +540,7 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
@@ -548,7 +548,7 @@
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="H1" s="3" t="n"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Primarios</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,47%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,52%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,98%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,85%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,71%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>19,3%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>18,63%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,46%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,2%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,94%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,24%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,48%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>16,04; 30,18</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>13,69; 28,31</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,09; 18,62</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,4; 34,83</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,86; 22,78</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,14; 27,21</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,48; 27,48</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>2,29; 15,55</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>14,57; 24,44</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>15,23; 25,69</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,69; 19,97</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>5,55; 21,97</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Primarios</t>
+          <t>Secundarios</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>15,71%</t>
+          <t>19,51%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>19,3%</t>
+          <t>16,66%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>18,63%</t>
+          <t>15,01%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>7,43%</t>
+          <t>18,49%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>22,47%</t>
+          <t>14,34%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>20,52%</t>
+          <t>14,11%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>8,98%</t>
+          <t>12,85%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>12,67%</t>
+          <t>15,6%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>19,2%</t>
+          <t>16,74%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>19,94%</t>
+          <t>15,32%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>14,24%</t>
+          <t>13,9%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>9,89%</t>
+          <t>16,97%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>9,89; 22,65</t>
+          <t>16,52; 22,9</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>12,93; 27,28</t>
+          <t>13,87; 19,78</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>11,78; 27,18</t>
+          <t>12,06; 17,98</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,58; 15,98</t>
+          <t>12,12; 34,21</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>15,77; 30,25</t>
+          <t>11,83; 17,14</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>14,15; 28,09</t>
+          <t>11,59; 17,06</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>3,95; 17,13</t>
+          <t>10,26; 15,58</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>5,61; 28,27</t>
+          <t>12,14; 22,35</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>15,02; 24,14</t>
+          <t>14,86; 18,79</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>15,41; 25,12</t>
+          <t>13,27; 17,52</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>9,79; 20,26</t>
+          <t>12,1; 15,96</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>5,28; 17,98</t>
+          <t>13,54; 26,69</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Secundarios</t>
+          <t>Universitarios</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>14,34%</t>
+          <t>10,18%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>14,11%</t>
+          <t>14,96%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>12,85%</t>
+          <t>11,0%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>14,56%</t>
+          <t>14,77%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>19,51%</t>
+          <t>13,17%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>16,66%</t>
+          <t>7,26%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>15,01%</t>
+          <t>11,05%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>14,83%</t>
+          <t>12,09%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>16,74%</t>
+          <t>11,6%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>15,32%</t>
+          <t>11,1%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>13,9%</t>
+          <t>11,02%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>14,69%</t>
+          <t>13,29%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>12,06; 17,16</t>
+          <t>6,83; 14,82</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>11,55; 16,8</t>
+          <t>10,31; 20,13</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>10,52; 15,71</t>
+          <t>7,32; 15,6</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>11,17; 18,73</t>
+          <t>9,83; 19,75</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>16,43; 23,01</t>
+          <t>9,04; 18,3</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>13,74; 19,86</t>
+          <t>4,3; 11,44</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>12,25; 17,81</t>
+          <t>7,76; 15,93</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>11,86; 21,08</t>
+          <t>7,94; 17,88</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>14,7; 18,99</t>
+          <t>8,95; 14,86</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>13,47; 17,33</t>
+          <t>8,35; 14,56</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>12,05; 15,84</t>
+          <t>8,28; 14,3</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>12,18; 17,9</t>
+          <t>10,1; 16,93</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Universitarios</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>13,17%</t>
+          <t>17,57%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>7,26%</t>
+          <t>16,78%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>11,05%</t>
+          <t>13,51%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>11,67%</t>
+          <t>17,27%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>10,18%</t>
+          <t>14,26%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>14,96%</t>
+          <t>13,2%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>11,0%</t>
+          <t>12,97%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>14,6%</t>
+          <t>14,1%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>11,6%</t>
+          <t>15,86%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>11,1%</t>
+          <t>14,94%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>11,02%</t>
+          <t>13,23%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>13,02%</t>
+          <t>15,58%</t>
         </is>
       </c>
     </row>
@@ -1144,216 +1144,75 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>8,93; 17,96</t>
+          <t>15,19; 19,93</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,4; 11,46</t>
+          <t>14,38; 19,21</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>7,18; 15,57</t>
+          <t>11,24; 15,73</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>7,97; 16,58</t>
+          <t>12,83; 29,11</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>6,7; 14,43</t>
+          <t>12,25; 16,26</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>10,21; 19,95</t>
+          <t>11,39; 15,47</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>7,22; 15,84</t>
+          <t>11,05; 15,14</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>9,69; 19,65</t>
+          <t>11,46; 18,73</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>8,99; 14,99</t>
+          <t>14,34; 17,59</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>8,31; 14,35</t>
+          <t>13,25; 16,43</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>8,37; 13,95</t>
+          <t>11,75; 14,83</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>10,0; 16,85</t>
+          <t>12,85; 21,63</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B12" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>14,24%</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>13,19%</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>12,97%</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>13,29%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>17,57%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>16,78%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>13,51%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>14,58%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>15,85%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>14,93%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>13,23%</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>13,9%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>12,14; 16,58</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>11,11; 15,39</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>10,81; 15,1</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>10,98; 16,78</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>15,33; 20,04</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>14,61; 19,18</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>11,57; 15,85</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>11,91; 18,58</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>14,12; 17,43</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>13,47; 16,43</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>11,63; 14,75</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>12,0; 16,29</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A12" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
